--- a/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_43.qasm_rb2_archsize7_mini_dis.xlsx
+++ b/results/yq_test/qft_cz/Rb2Re4/cz_2q_qft_43.qasm_rb2_archsize7_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1550"/>
+  <dimension ref="A1:N1551"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.83163595199585</v>
+        <v>0.001535177230834961</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0619652271270752</v>
+        <v>0.0008862018585205078</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1240220069885254</v>
+        <v>0.1012210845947266</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(3, 0), (4, 0), (5, 2), (4, 1), (6, 3), (3, 3), (5, 5), (4, 2), (5, 1), (6, 4), (4, 4), (5, 6), (3, 5), (3, 6), (1, 5), (2, 4), (1, 3), (0, 5), (2, 2), (2, 3), (2, 6), (2, 0), (1, 4), (4, 5), (2, 5), (3, 4), (4, 6), (0, 4), (0, 6), (5, 4), (3, 2), (5, 3), (6, 5), (6, 6), (6, 2), (0, 3), (0, 2), (0, 0), (2, 1), (1, 2), (1, 0), (1, 1), (0, 1)]</t>
+          <t>[[3, 0], [4, 0], [5, 2], [4, 1], [6, 3], [3, 3], [5, 5], [4, 2], [5, 1], [6, 4], [4, 4], [5, 6], [3, 5], [3, 6], [1, 5], [2, 4], [1, 3], [0, 5], [2, 2], [2, 3], [2, 6], [2, 0], [1, 4], [4, 5], [2, 5], [3, 4], [4, 6], [0, 4], [0, 6], [5, 4], [3, 2], [5, 3], [6, 5], [6, 6], [6, 2], [0, 3], [0, 2], [0, 0], [2, 1], [1, 2], [1, 0], [1, 1], [0, 1]]</t>
         </is>
       </c>
     </row>
@@ -899,7 +899,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>[(5, 2), (4, 0), (6, 3), (4, 1), (5, 5), (3, 3), (4, 4), (4, 2), (5, 1), (6, 4), (3, 5), (5, 6), (1, 5), (3, 6), (6, 1), (2, 4), (1, 4), (0, 5), (2, 3), (0, 0), (2, 6), (0, 4), (2, 5), (4, 5), (3, 4), (4, 3), (4, 6), (5, 4), (0, 6), (6, 6), (3, 2), (3, 0), (2, 0), (2, 1), (1, 1), (1, 2), (0, 2), (0, 3), (1, 3), (0, 1), (2, 2), (1, 0), (3, 1)]</t>
+          <t>[[5, 2], [4, 0], [6, 3], [4, 1], [5, 5], [3, 3], [4, 4], [4, 2], [5, 1], [6, 4], [3, 5], [5, 6], [1, 5], [3, 6], [6, 1], [2, 4], [1, 4], [0, 5], [2, 3], [0, 0], [2, 6], [0, 4], [2, 5], [4, 5], [3, 4], [4, 3], [4, 6], [5, 4], [0, 6], [6, 6], [3, 2], [3, 0], [2, 0], [2, 1], [1, 1], [1, 2], [0, 2], [0, 3], [1, 3], [0, 1], [2, 2], [1, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -1440,7 +1440,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>[(5, 2), (4, 0), (6, 3), (4, 1), (5, 5), (3, 3), (4, 4), (4, 2), (5, 1), (6, 4), (3, 5), (5, 6), (2, 2), (2, 3), (6, 1), (2, 0), (3, 4), (2, 1), (3, 2), (3, 0), (4, 6), (3, 1), (4, 5), (4, 3), (5, 4), (2, 4), (3, 6), (2, 5), (0, 6), (1, 5), (1, 4), (0, 3), (0, 2), (1, 1), (1, 0), (0, 0), (0, 1), (1, 2), (1, 3), (0, 4), (0, 5), (1, 6), (2, 6)]</t>
+          <t>[[5, 2], [4, 0], [6, 3], [4, 1], [5, 5], [3, 3], [4, 4], [4, 2], [5, 1], [6, 4], [3, 5], [5, 6], [2, 2], [2, 3], [6, 1], [2, 0], [3, 4], [2, 1], [3, 2], [3, 0], [4, 6], [3, 1], [4, 5], [4, 3], [5, 4], [2, 4], [3, 6], [2, 5], [0, 6], [1, 5], [1, 4], [0, 3], [0, 2], [1, 1], [1, 0], [0, 0], [0, 1], [1, 2], [1, 3], [0, 4], [0, 5], [1, 6], [2, 6]]</t>
         </is>
       </c>
     </row>
@@ -2176,7 +2176,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>[(5, 2), (4, 0), (6, 3), (4, 1), (3, 0), (4, 2), (1, 5), (6, 4), (5, 1), (3, 6), (3, 1), (0, 5), (2, 0), (0, 6), (6, 1), (0, 3), (1, 4), (0, 4), (2, 5), (5, 0), (2, 6), (5, 6), (5, 5), (4, 5), (4, 4), (3, 4), (3, 3), (2, 3), (2, 2), (1, 2), (1, 1), (0, 1), (0, 0), (1, 0), (0, 2), (2, 1), (1, 3), (3, 2), (2, 4), (4, 3), (3, 5), (5, 4), (4, 6)]</t>
+          <t>[[5, 2], [4, 0], [6, 3], [4, 1], [3, 0], [4, 2], [1, 5], [6, 4], [5, 1], [3, 6], [3, 1], [0, 5], [2, 0], [0, 6], [6, 1], [0, 3], [1, 4], [0, 4], [2, 5], [5, 0], [2, 6], [5, 6], [5, 5], [4, 5], [4, 4], [3, 4], [3, 3], [2, 3], [2, 2], [1, 2], [1, 1], [0, 1], [0, 0], [1, 0], [0, 2], [2, 1], [1, 3], [3, 2], [2, 4], [4, 3], [3, 5], [5, 4], [4, 6]]</t>
         </is>
       </c>
     </row>
@@ -3033,7 +3033,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>[(5, 2), (4, 0), (6, 3), (4, 1), (3, 0), (4, 2), (0, 6), (6, 4), (5, 1), (1, 6), (3, 1), (3, 2), (3, 3), (6, 6), (6, 1), (5, 3), (5, 6), (5, 5), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6)]</t>
+          <t>[[5, 2], [4, 0], [6, 3], [4, 1], [3, 0], [4, 2], [0, 6], [6, 4], [5, 1], [1, 6], [3, 1], [3, 2], [3, 3], [6, 6], [6, 1], [5, 3], [5, 6], [5, 5], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6]]</t>
         </is>
       </c>
     </row>
@@ -3881,7 +3881,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>[(5, 2), (4, 0), (3, 0), (4, 1), (3, 2), (4, 2), (0, 6), (5, 3), (5, 1), (1, 6), (3, 1), (3, 3), (6, 4), (6, 3), (5, 6), (5, 5), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5)]</t>
+          <t>[[5, 2], [4, 0], [3, 0], [4, 1], [3, 2], [4, 2], [0, 6], [5, 3], [5, 1], [1, 6], [3, 1], [3, 3], [6, 4], [6, 3], [5, 6], [5, 5], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5]]</t>
         </is>
       </c>
     </row>
@@ -4818,7 +4818,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>[(5, 2), (4, 0), (3, 0), (4, 1), (3, 2), (3, 3), (0, 6), (4, 3), (5, 1), (4, 2), (6, 4), (6, 3), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2)]</t>
+          <t>[[5, 2], [4, 0], [3, 0], [4, 1], [3, 2], [3, 3], [0, 6], [4, 3], [5, 1], [4, 2], [6, 4], [6, 3], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2]]</t>
         </is>
       </c>
     </row>
@@ -5872,7 +5872,7 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>[(4, 1), (4, 0), (5, 1), (3, 1), (3, 0), (3, 3), (5, 2), (4, 2), (6, 3), (6, 4), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2), (4, 3), (3, 2)]</t>
+          <t>[[4, 1], [4, 0], [5, 1], [3, 1], [3, 0], [3, 3], [5, 2], [4, 2], [6, 3], [6, 4], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2], [4, 3], [3, 2]]</t>
         </is>
       </c>
     </row>
@@ -7039,7 +7039,7 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>[(5, 1), (4, 0), (3, 0), (4, 1), (5, 2), (4, 2), (6, 3), (6, 4), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2), (4, 3), (3, 2), (5, 0), (3, 1)]</t>
+          <t>[[5, 1], [4, 0], [3, 0], [4, 1], [5, 2], [4, 2], [6, 3], [6, 4], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2], [4, 3], [3, 2], [5, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
@@ -8277,7 +8277,7 @@
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>[(3, 0), (4, 1), (5, 2), (4, 2), (6, 3), (6, 4), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2), (4, 3), (3, 2), (5, 0), (3, 1), (4, 0), (3, 3)]</t>
+          <t>[[3, 0], [4, 1], [5, 2], [4, 2], [6, 3], [6, 4], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2], [4, 3], [3, 2], [5, 0], [3, 1], [4, 0], [3, 3]]</t>
         </is>
       </c>
     </row>
@@ -9487,7 +9487,7 @@
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>[(5, 2), (4, 2), (6, 3), (6, 4), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2), (4, 3), (3, 2), (4, 1), (3, 0), (5, 0), (3, 1), (4, 0), (3, 3)]</t>
+          <t>[[5, 2], [4, 2], [6, 3], [6, 4], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2], [4, 3], [3, 2], [4, 1], [3, 0], [5, 0], [3, 1], [4, 0], [3, 3]]</t>
         </is>
       </c>
     </row>
@@ -10591,7 +10591,7 @@
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>[(6, 4), (6, 3), (5, 5), (5, 6), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (5, 3), (6, 2), (6, 6), (4, 2), (4, 3), (3, 2), (4, 1), (3, 0), (5, 0), (3, 1), (4, 0), (3, 3)]</t>
+          <t>[[6, 4], [6, 3], [5, 5], [5, 6], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [5, 3], [6, 2], [6, 6], [4, 2], [4, 3], [3, 2], [4, 1], [3, 0], [5, 0], [3, 1], [4, 0], [3, 3]]</t>
         </is>
       </c>
     </row>
@@ -11592,7 +11592,7 @@
     <row r="1070">
       <c r="A1070" t="inlineStr">
         <is>
-          <t>[(5, 6), (5, 5), (4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (5, 4), (6, 5), (6, 6), (4, 1), (5, 3), (6, 2), (6, 4), (4, 2), (4, 3), (3, 2), (3, 0), (3, 1), (5, 0), (3, 3), (4, 0), (5, 1)]</t>
+          <t>[[5, 6], [5, 5], [4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [5, 4], [6, 5], [6, 6], [4, 1], [5, 3], [6, 2], [6, 4], [4, 2], [4, 3], [3, 2], [3, 0], [3, 1], [5, 0], [3, 3], [4, 0], [5, 1]]</t>
         </is>
       </c>
     </row>
@@ -12469,7 +12469,7 @@
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>[(4, 4), (3, 6), (3, 5), (2, 4), (1, 5), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (2, 5), (2, 6), (3, 4), (4, 5), (4, 6), (3, 3), (5, 5), (5, 4), (6, 5), (6, 6), (4, 1), (5, 3), (6, 2), (6, 4), (4, 2), (4, 3), (3, 2), (3, 0), (3, 1), (5, 0), (4, 0), (5, 1), (5, 2)]</t>
+          <t>[[4, 4], [3, 6], [3, 5], [2, 4], [1, 5], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [2, 5], [2, 6], [3, 4], [4, 5], [4, 6], [3, 3], [5, 5], [5, 4], [6, 5], [6, 6], [4, 1], [5, 3], [6, 2], [6, 4], [4, 2], [4, 3], [3, 2], [3, 0], [3, 1], [5, 0], [4, 0], [5, 1], [5, 2]]</t>
         </is>
       </c>
     </row>
@@ -13240,7 +13240,7 @@
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t>[(2, 5), (0, 6), (2, 4), (0, 5), (1, 3), (2, 3), (1, 2), (2, 0), (1, 0), (0, 2), (0, 1), (0, 0), (1, 1), (2, 1), (2, 2), (0, 3), (1, 4), (0, 4), (1, 5), (2, 6), (1, 6), (3, 4), (3, 6), (3, 5), (4, 6), (3, 3), (5, 5), (5, 4), (6, 5), (6, 6), (4, 1), (5, 3), (6, 2), (6, 4), (4, 2), (4, 3), (3, 2), (3, 0), (3, 1), (5, 0), (4, 0), (5, 1), (5, 2)]</t>
+          <t>[[2, 5], [0, 6], [2, 4], [0, 5], [1, 3], [2, 3], [1, 2], [2, 0], [1, 0], [0, 2], [0, 1], [0, 0], [1, 1], [2, 1], [2, 2], [0, 3], [1, 4], [0, 4], [1, 5], [2, 6], [1, 6], [3, 4], [3, 6], [3, 5], [4, 6], [3, 3], [5, 5], [5, 4], [6, 5], [6, 6], [4, 1], [5, 3], [6, 2], [6, 4], [4, 2], [4, 3], [3, 2], [3, 0], [3, 1], [5, 0], [4, 0], [5, 1], [5, 2]]</t>
         </is>
       </c>
     </row>
@@ -14037,7 +14037,7 @@
     <row r="1320">
       <c r="A1320" t="inlineStr">
         <is>
-          <t>[(6, 3), (6, 2), (5, 1), (4, 1), (3, 2), (2, 2), (1, 1), (0, 1), (0, 2), (1, 2), (2, 1), (3, 1), (4, 2), (5, 2), (6, 1), (5, 3), (6, 4), (4, 3), (0, 3), (0, 0), (1, 6), (3, 4), (3, 6), (1, 0), (0, 4), (2, 3), (4, 4), (3, 3), (5, 0), (6, 6), (3, 0), (5, 4), (6, 0), (0, 5), (1, 5), (4, 5), (1, 3), (2, 0), (4, 0), (5, 5), (2, 4), (1, 4), (5, 6)]</t>
+          <t>[[6, 3], [6, 2], [5, 1], [4, 1], [3, 2], [2, 2], [1, 1], [0, 1], [0, 2], [1, 2], [2, 1], [3, 1], [4, 2], [5, 2], [6, 1], [5, 3], [6, 4], [4, 3], [0, 3], [0, 0], [1, 6], [3, 4], [3, 6], [1, 0], [0, 4], [2, 3], [4, 4], [3, 3], [5, 0], [6, 6], [3, 0], [5, 4], [6, 0], [0, 5], [1, 5], [4, 5], [1, 3], [2, 0], [4, 0], [5, 5], [2, 4], [1, 4], [5, 6]]</t>
         </is>
       </c>
     </row>
@@ -14845,7 +14845,7 @@
     <row r="1409">
       <c r="A1409" t="inlineStr">
         <is>
-          <t>[(2, 0), (2, 1), (1, 1), (1, 2), (0, 2), (0, 3), (1, 3), (0, 1), (2, 2), (1, 0), (3, 1), (3, 0), (4, 0), (0, 6), (0, 4), (5, 3), (6, 4), (4, 3), (1, 4), (2, 3), (1, 6), (3, 4), (3, 6), (5, 0), (2, 4), (2, 5), (4, 4), (3, 5), (0, 5), (1, 5), (4, 1), (3, 2), (3, 3), (0, 0), (2, 6), (4, 5), (4, 2), (5, 1), (6, 0), (5, 5), (4, 6), (5, 4), (5, 6)]</t>
+          <t>[[2, 0], [2, 1], [1, 1], [1, 2], [0, 2], [0, 3], [1, 3], [0, 1], [2, 2], [1, 0], [3, 1], [3, 0], [4, 0], [0, 6], [0, 4], [5, 3], [6, 4], [4, 3], [1, 4], [2, 3], [1, 6], [3, 4], [3, 6], [5, 0], [2, 4], [2, 5], [4, 4], [3, 5], [0, 5], [1, 5], [4, 1], [3, 2], [3, 3], [0, 0], [2, 6], [4, 5], [4, 2], [5, 1], [6, 0], [5, 5], [4, 6], [5, 4], [5, 6]]</t>
         </is>
       </c>
     </row>
@@ -15526,7 +15526,7 @@
     <row r="1487">
       <c r="A1487" t="inlineStr">
         <is>
-          <t>[(2, 1), (1, 2), (1, 1), (1, 0), (0, 1), (2, 2), (2, 3), (2, 0), (0, 6), (0, 4), (3, 3), (4, 0), (4, 1), (1, 6), (2, 4), (5, 3), (6, 4), (4, 3), (2, 5), (3, 4), (2, 6), (3, 5), (3, 6), (5, 0), (4, 4), (4, 5), (4, 2), (4, 6), (5, 4), (5, 5), (5, 1), (5, 2), (6, 2), (0, 5), (1, 5), (0, 0), (0, 3), (1, 3), (0, 2), (3, 0), (3, 1), (1, 4), (3, 2)]</t>
+          <t>[[2, 1], [1, 2], [1, 1], [1, 0], [0, 1], [2, 2], [2, 3], [2, 0], [0, 6], [0, 4], [3, 3], [4, 0], [4, 1], [1, 6], [2, 4], [5, 3], [6, 4], [4, 3], [2, 5], [3, 4], [2, 6], [3, 5], [3, 6], [5, 0], [4, 4], [4, 5], [4, 2], [4, 6], [5, 4], [5, 5], [5, 1], [5, 2], [6, 2], [0, 5], [1, 5], [0, 0], [0, 3], [1, 3], [0, 2], [3, 0], [3, 1], [1, 4], [3, 2]]</t>
         </is>
       </c>
     </row>
@@ -15965,110 +15965,120 @@
     <row r="1546">
       <c r="A1546" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B1546" t="n">
-        <v>252</v>
+        <v>0.9839181478473605</v>
       </c>
     </row>
     <row r="1547">
       <c r="A1547" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B1547" t="n">
-        <v>1266</v>
+        <v>252</v>
       </c>
     </row>
     <row r="1548">
       <c r="A1548" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B1548" t="n">
-        <v>18</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="1549">
       <c r="A1549" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B1549" t="n">
-        <v>7.272475004196167</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1550">
       <c r="A1550" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B1550" t="n">
+        <v>0.406851053237915</v>
+      </c>
+    </row>
+    <row r="1551">
+      <c r="A1551" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B1550" t="inlineStr">
+      <c r="B1551" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C1550" t="inlineStr">
+      <c r="C1551" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D1550" t="inlineStr">
+      <c r="D1551" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E1550" t="inlineStr">
+      <c r="E1551" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F1550" t="inlineStr">
+      <c r="F1551" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G1550" t="inlineStr">
+      <c r="G1551" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H1550" t="inlineStr">
+      <c r="H1551" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I1550" t="inlineStr">
+      <c r="I1551" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J1550" t="inlineStr">
+      <c r="J1551" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K1550" t="inlineStr">
+      <c r="K1551" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L1550" t="inlineStr">
+      <c r="L1551" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M1550" t="inlineStr">
+      <c r="M1551" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N1550" t="inlineStr">
+      <c r="N1551" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>
